--- a/datacollector/samples/simudata/data_sample_1.xlsx
+++ b/datacollector/samples/simudata/data_sample_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="24">
   <si>
     <t>遵义</t>
   </si>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>201909力度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -600,111 +604,101 @@
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="7">
-        <v>8.1692360438249989E-7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.4853156443318201E-6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="7">
-        <v>1.1044807131251398E-5</v>
+        <v>8.1692360438249989E-7</v>
       </c>
       <c r="E3" s="5">
-        <v>2.0081467511366178E-5</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>1.4853156443318201E-6</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="7">
-        <v>6.0452346724305E-6</v>
+        <v>1.1044807131251398E-5</v>
       </c>
       <c r="E4" s="5">
-        <v>1.0991335768055453E-5</v>
+        <v>2.0081467511366178E-5</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6.0452346724305E-6</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1.0991335768055453E-5</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="7">
-        <v>2.5582779594842368E-4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>4.651414471789521E-4</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2.5582779594842368E-4</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.32</v>
+        <v>4.651414471789521E-4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>15</v>
@@ -719,132 +713,132 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>6.3883425862711494E-5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>1.1615168338674817E-4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>4.3133566311395995E-6</v>
+        <v>6.3883425862711494E-5</v>
       </c>
       <c r="E10" s="5">
-        <v>7.8424666020719983E-6</v>
+        <v>1.1615168338674817E-4</v>
       </c>
       <c r="F10" s="8">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>6.5353888350599989E-7</v>
+        <v>4.3133566311395995E-6</v>
       </c>
       <c r="E11" s="5">
-        <v>1.1882525154654543E-6</v>
+        <v>7.8424666020719983E-6</v>
       </c>
       <c r="F11" s="8">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>5.4570496772750995E-6</v>
+        <v>6.5353888350599989E-7</v>
       </c>
       <c r="E12" s="5">
-        <v>9.9219085041365436E-6</v>
+        <v>1.1882525154654543E-6</v>
       </c>
       <c r="F12" s="8">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3.9865871893865995E-6</v>
+        <v>5.4570496772750995E-6</v>
       </c>
       <c r="E13" s="5">
-        <v>7.2483403443392709E-6</v>
+        <v>9.9219085041365436E-6</v>
       </c>
       <c r="F13" s="8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1.6011702645897003E-6</v>
+        <v>3.9865871893865995E-6</v>
       </c>
       <c r="E14" s="5">
-        <v>2.9112186628903637E-6</v>
+        <v>7.2483403443392709E-6</v>
       </c>
       <c r="F14" s="8">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>16</v>
@@ -853,25 +847,25 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>1.6011702645897003E-6</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>2.9112186628903637E-6</v>
       </c>
       <c r="F15" s="8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
       <c r="D16" s="7">
         <v>0</v>
       </c>
@@ -879,32 +873,32 @@
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1.2744008228367E-5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>2.3170924051576362E-5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="8">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>15</v>
@@ -913,12 +907,32 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
+        <v>1.2744008228367E-5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.3170924051576362E-5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <v>5.5550805098009991E-7</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>1.0100146381456361E-6</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
